--- a/For Tables.xlsx
+++ b/For Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\INF221\termpaper01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:0_{16F47A2E-C8DC-4DCA-A453-D096466485E5}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA01F40-E30A-4693-9429-C206DF54252D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8685" yWindow="2055" windowWidth="10995" windowHeight="8985" activeTab="1" xr2:uid="{6AC5C30D-9F77-45DB-AE45-BAF67F925BD9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{6AC5C30D-9F77-45DB-AE45-BAF67F925BD9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,20 +32,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="12">
-  <si>
-    <t>Increase factor</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="23">
   <si>
     <t>Sort Type</t>
   </si>
   <si>
-    <t>List length</t>
-  </si>
-  <si>
-    <t>Single runtime</t>
-  </si>
-  <si>
     <t>heap sort</t>
   </si>
   <si>
@@ -68,12 +59,57 @@
   </si>
   <si>
     <t>n*root(n)</t>
+  </si>
+  <si>
+    <t>List_length</t>
+  </si>
+  <si>
+    <t>Single_runtime</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2.153</t>
+  </si>
+  <si>
+    <t>2.139</t>
+  </si>
+  <si>
+    <t>2.160</t>
+  </si>
+  <si>
+    <t>2.170</t>
+  </si>
+  <si>
+    <t>2.164</t>
+  </si>
+  <si>
+    <t>2.151</t>
+  </si>
+  <si>
+    <t>2.137</t>
+  </si>
+  <si>
+    <t>2.134</t>
+  </si>
+  <si>
+    <t>numpy_sort</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>Average</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,7 +135,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -107,15 +143,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -430,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9124F5C-2BAE-45A0-BDE8-6A06AEF98B39}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -446,20 +502,21 @@
     <col min="6" max="6" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="E1" t="str">
         <f>A1&amp;" &amp; "</f>
@@ -467,311 +524,448 @@
       </c>
       <c r="F1" t="str">
         <f>B1&amp;" &amp; "</f>
-        <v xml:space="preserve">List length &amp; </v>
+        <v xml:space="preserve">List_length &amp; </v>
       </c>
       <c r="G1" t="str">
         <f>C1&amp;" &amp; "</f>
-        <v xml:space="preserve">Single runtime &amp; </v>
+        <v xml:space="preserve">Single_runtime &amp; </v>
       </c>
       <c r="H1" s="2" t="str">
         <f>D1&amp;" \\ "</f>
-        <v xml:space="preserve">Increase factor \\ </v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">factor \\ </v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
         <v>40960</v>
       </c>
       <c r="C2">
-        <v>0.18348</v>
+        <v>0.44378699999999999</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="E2" t="str">
-        <f>A2&amp;" &amp; "</f>
+        <f t="shared" ref="E2:E10" si="0">A2&amp;" &amp; "</f>
         <v xml:space="preserve">heap sort &amp; </v>
       </c>
       <c r="F2" t="str">
-        <f>B2&amp;" &amp; "</f>
+        <f t="shared" ref="F2:F10" si="1">B2&amp;" &amp; "</f>
         <v xml:space="preserve">40960 &amp; </v>
       </c>
       <c r="G2" t="str">
-        <f t="shared" ref="G2:G10" si="0">C2&amp;" &amp; "</f>
-        <v xml:space="preserve">0.18348 &amp; </v>
+        <f t="shared" ref="G2:G10" si="2">C2&amp;" &amp; "</f>
+        <v xml:space="preserve">0.443787 &amp; </v>
       </c>
       <c r="H2" s="2" t="str">
-        <f t="shared" ref="H2:H11" si="1">D2&amp;" \\ "</f>
-        <v xml:space="preserve"> \\ </v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H2:H11" si="3">D2&amp;" \\ "</f>
+        <v xml:space="preserve">- \\ </v>
+      </c>
+      <c r="K2">
+        <v>0.44378699999999999</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="N2">
+        <v>0.44378699999999999</v>
+      </c>
+      <c r="O2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="6">
         <v>81920</v>
       </c>
       <c r="C3">
-        <v>0.52584900000000001</v>
+        <v>0.95557700000000001</v>
       </c>
       <c r="D3" s="1">
-        <f>$C3/$C2</f>
-        <v>2.8659744931327666</v>
+        <f>C3/C2</f>
+        <v>2.15323342053733</v>
       </c>
       <c r="E3" t="str">
-        <f>A3&amp;" &amp; "</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">heap sort &amp; </v>
       </c>
       <c r="F3" t="str">
-        <f>B3&amp;" &amp; "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">81920 &amp; </v>
       </c>
       <c r="G3" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">0.955577 &amp; </v>
+      </c>
+      <c r="H3" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">2.15323342053733 \\ </v>
+      </c>
+      <c r="K3">
+        <v>0.95557700000000001</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N3">
+        <v>0.95557700000000001</v>
+      </c>
+      <c r="O3" t="str">
+        <f>LEFT(L3,5)</f>
+        <v>2.153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="6">
+        <v>163840</v>
+      </c>
+      <c r="C4">
+        <v>2.0444990000000001</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" ref="D4:D10" si="4">C4/C3</f>
+        <v>2.1395439613971456</v>
+      </c>
+      <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">0.525849 &amp; </v>
-      </c>
-      <c r="H3" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">2.86597449313277 \\ </v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>163840</v>
-      </c>
-      <c r="C4">
-        <v>1.1547529999999999</v>
-      </c>
-      <c r="D4" s="1">
-        <f t="shared" ref="D4:D10" si="2">$C4/$C3</f>
-        <v>2.1959783131659467</v>
-      </c>
-      <c r="E4" t="str">
-        <f>A4&amp;" &amp; "</f>
         <v xml:space="preserve">heap sort &amp; </v>
       </c>
       <c r="F4" t="str">
-        <f>B4&amp;" &amp; "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">163840 &amp; </v>
       </c>
       <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">2.044499 &amp; </v>
+      </c>
+      <c r="H4" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">2.13954396139715 \\ </v>
+      </c>
+      <c r="K4">
+        <v>2.0444990000000001</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N4">
+        <v>2.0444990000000001</v>
+      </c>
+      <c r="O4" t="str">
+        <f t="shared" ref="O4:O10" si="5">LEFT(L4,5)</f>
+        <v>2.139</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>327680</v>
+      </c>
+      <c r="C5">
+        <v>4.4161530000000004</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1600171973671789</v>
+      </c>
+      <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">1.154753 &amp; </v>
-      </c>
-      <c r="H4" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">2.19597831316595 \\ </v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>327680</v>
-      </c>
-      <c r="C5">
-        <v>2.1168439999999999</v>
-      </c>
-      <c r="D5" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8331573938322743</v>
-      </c>
-      <c r="E5" t="str">
-        <f>A5&amp;" &amp; "</f>
         <v xml:space="preserve">heap sort &amp; </v>
       </c>
       <c r="F5" t="str">
-        <f>B5&amp;" &amp; "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">327680 &amp; </v>
       </c>
       <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">4.416153 &amp; </v>
+      </c>
+      <c r="H5" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">2.16001719736718 \\ </v>
+      </c>
+      <c r="K5">
+        <v>4.4161530000000004</v>
+      </c>
+      <c r="L5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5">
+        <v>4.4161530000000004</v>
+      </c>
+      <c r="O5" t="str">
+        <f t="shared" si="5"/>
+        <v>2.160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="6">
+        <v>655360</v>
+      </c>
+      <c r="C6">
+        <v>9.5871600000000008</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="4"/>
+        <v>2.170930219129636</v>
+      </c>
+      <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">2.116844 &amp; </v>
-      </c>
-      <c r="H5" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">1.83315739383227 \\ </v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>655360</v>
-      </c>
-      <c r="C6">
-        <v>4.5352829999999997</v>
-      </c>
-      <c r="D6" s="1">
-        <f t="shared" si="2"/>
-        <v>2.1424738903764284</v>
-      </c>
-      <c r="E6" t="str">
-        <f>A6&amp;" &amp; "</f>
         <v xml:space="preserve">heap sort &amp; </v>
       </c>
       <c r="F6" t="str">
-        <f>B6&amp;" &amp; "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">655360 &amp; </v>
       </c>
       <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">9.58716 &amp; </v>
+      </c>
+      <c r="H6" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">2.17093021912964 \\ </v>
+      </c>
+      <c r="K6">
+        <v>9.5871600000000008</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6">
+        <v>9.5871600000000008</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" si="5"/>
+        <v>2.170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1310720</v>
+      </c>
+      <c r="C7">
+        <v>20.747911999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1641353643831955</v>
+      </c>
+      <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">4.535283 &amp; </v>
-      </c>
-      <c r="H6" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">2.14247389037643 \\ </v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>1310720</v>
-      </c>
-      <c r="C7">
-        <v>11.578996999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <f t="shared" si="2"/>
-        <v>2.5530924972046947</v>
-      </c>
-      <c r="E7" t="str">
-        <f>A7&amp;" &amp; "</f>
         <v xml:space="preserve">heap sort &amp; </v>
       </c>
       <c r="F7" t="str">
-        <f>B7&amp;" &amp; "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">1310720 &amp; </v>
       </c>
       <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">20.747912 &amp; </v>
+      </c>
+      <c r="H7" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">2.1641353643832 \\ </v>
+      </c>
+      <c r="K7">
+        <v>20.747911999999999</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7">
+        <v>20.747911999999999</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="5"/>
+        <v>2.164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="6">
+        <v>2621440</v>
+      </c>
+      <c r="C8">
+        <v>44.638866999999998</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="4"/>
+        <v>2.151487195434413</v>
+      </c>
+      <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">11.578997 &amp; </v>
-      </c>
-      <c r="H7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">2.55309249720469 \\ </v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8">
-        <v>2621440</v>
-      </c>
-      <c r="C8">
-        <v>20.032117</v>
-      </c>
-      <c r="D8" s="1">
-        <f t="shared" si="2"/>
-        <v>1.7300390526053337</v>
-      </c>
-      <c r="E8" t="str">
-        <f>A8&amp;" &amp; "</f>
         <v xml:space="preserve">heap sort &amp; </v>
       </c>
       <c r="F8" t="str">
-        <f>B8&amp;" &amp; "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">2621440 &amp; </v>
       </c>
       <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">44.638867 &amp; </v>
+      </c>
+      <c r="H8" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">2.15148719543441 \\ </v>
+      </c>
+      <c r="K8">
+        <v>44.638866999999998</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8">
+        <v>44.638866999999998</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="5"/>
+        <v>2.151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B9" s="6">
+        <v>5242880</v>
+      </c>
+      <c r="C9">
+        <v>95.394334000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1370240871032862</v>
+      </c>
+      <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">20.032117 &amp; </v>
-      </c>
-      <c r="H8" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">1.73003905260533 \\ </v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9">
-        <v>5242880</v>
-      </c>
-      <c r="C9">
-        <v>57.685499</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" si="2"/>
-        <v>2.8796506629828489</v>
-      </c>
-      <c r="E9" t="str">
-        <f>A9&amp;" &amp; "</f>
         <v xml:space="preserve">heap sort &amp; </v>
       </c>
       <c r="F9" t="str">
-        <f>B9&amp;" &amp; "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">5242880 &amp; </v>
       </c>
       <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">95.394334 &amp; </v>
+      </c>
+      <c r="H9" s="2" t="str">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">2.13702408710329 \\ </v>
+      </c>
+      <c r="K9">
+        <v>95.394334000000001</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="N9">
+        <v>95.394334000000001</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="5"/>
+        <v>2.137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="6">
+        <v>10485760</v>
+      </c>
+      <c r="C10">
+        <v>203.664646</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1349763393704286</v>
+      </c>
+      <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">57.685499 &amp; </v>
-      </c>
-      <c r="H9" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">2.87965066298285 \\ </v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10">
-        <v>10485760</v>
-      </c>
-      <c r="C10">
-        <v>96.435979000000003</v>
-      </c>
-      <c r="D10" s="1">
-        <f t="shared" si="2"/>
-        <v>1.6717542653137143</v>
-      </c>
-      <c r="E10" t="str">
-        <f>A10&amp;" &amp; "</f>
         <v xml:space="preserve">heap sort &amp; </v>
       </c>
       <c r="F10" t="str">
-        <f>B10&amp;" &amp; "</f>
+        <f t="shared" si="1"/>
         <v xml:space="preserve">10485760 &amp; </v>
       </c>
       <c r="G10" t="str">
-        <f t="shared" si="0"/>
-        <v xml:space="preserve">96.435979 &amp; </v>
+        <f t="shared" si="2"/>
+        <v xml:space="preserve">203.664646 &amp; </v>
       </c>
       <c r="H10" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">1.67175426531371 \\ </v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v xml:space="preserve">2.13497633937043 \\ </v>
+      </c>
+      <c r="K10">
+        <v>203.664646</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="N10">
+        <v>203.664646</v>
+      </c>
+      <c r="O10" t="str">
+        <f t="shared" si="5"/>
+        <v>2.134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
       <c r="D11" s="1">
         <f>AVERAGE(D3:D10)</f>
-        <v>2.234015071076751</v>
+        <v>2.1514184730903265</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" ref="E11" si="6">A11&amp;" &amp; "</f>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" ref="F11" si="7">B11&amp;" &amp; "</f>
+        <v xml:space="preserve"> &amp; </v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" ref="G11" si="8">C11&amp;" &amp; "</f>
+        <v xml:space="preserve">Average &amp; </v>
       </c>
       <c r="H11" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v xml:space="preserve">2.23401507107675 \\ </v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H11" si="9">D11&amp;" \\ "</f>
+        <v xml:space="preserve">2.15141847309033 \\ </v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="B12" s="8">
         <v>40960</v>
       </c>
       <c r="C12">
-        <v>3.7461000000000001E-2</v>
+        <v>5.0080000000000003E-3</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E12" t="str">
         <f>A12&amp;" &amp; "</f>
@@ -783,269 +977,344 @@
       </c>
       <c r="G12" t="str">
         <f>C12&amp;" &amp; "</f>
-        <v xml:space="preserve">0.037461 &amp; </v>
+        <v xml:space="preserve">0.005008 &amp; </v>
       </c>
       <c r="H12" s="2" t="str">
         <f>D12&amp;" \\ "</f>
-        <v xml:space="preserve"> \\ </v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v xml:space="preserve">- \\ </v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="8">
         <v>81920</v>
       </c>
       <c r="C13">
-        <v>4.3111999999999998E-2</v>
+        <v>1.0742E-2</v>
       </c>
       <c r="D13" s="1">
-        <f>$C13/$C12</f>
-        <v>1.1508502175595952</v>
+        <f>C13/C12</f>
+        <v>2.1449680511182105</v>
       </c>
       <c r="E13" t="str">
-        <f>A13&amp;" &amp; "</f>
+        <f t="shared" ref="E13:F20" si="10">A13&amp;" &amp; "</f>
         <v xml:space="preserve">numpy sort &amp; </v>
       </c>
       <c r="F13" t="str">
-        <f>B13&amp;" &amp; "</f>
+        <f t="shared" ref="F13:F20" si="11">B13&amp;" &amp; "</f>
         <v xml:space="preserve">81920 &amp; </v>
       </c>
       <c r="G13" t="str">
-        <f t="shared" ref="G13:G20" si="3">C13&amp;" &amp; "</f>
-        <v xml:space="preserve">0.043112 &amp; </v>
+        <f t="shared" ref="G13:G20" si="12">C13&amp;" &amp; "</f>
+        <v xml:space="preserve">0.010742 &amp; </v>
       </c>
       <c r="H13" s="2" t="str">
-        <f t="shared" ref="H13:H21" si="4">D13&amp;" \\ "</f>
-        <v xml:space="preserve">1.1508502175596 \\ </v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" ref="H13:H21" si="13">D13&amp;" \\ "</f>
+        <v xml:space="preserve">2.14496805111821 \\ </v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="B14" s="8">
         <v>163840</v>
       </c>
       <c r="C14">
-        <v>2.9618999999999999E-2</v>
+        <v>2.2419000000000001E-2</v>
       </c>
       <c r="D14" s="1">
-        <f t="shared" ref="D14:D20" si="5">$C14/$C13</f>
-        <v>0.68702449434032287</v>
+        <f t="shared" ref="D14:D20" si="14">C14/C13</f>
+        <v>2.0870415192701546</v>
       </c>
       <c r="E14" t="str">
-        <f>A14&amp;" &amp; "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">numpy sort &amp; </v>
       </c>
       <c r="F14" t="str">
-        <f>B14&amp;" &amp; "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">163840 &amp; </v>
       </c>
       <c r="G14" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">0.029619 &amp; </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">0.022419 &amp; </v>
       </c>
       <c r="H14" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">0.687024494340323 \\ </v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">2.08704151927015 \\ </v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="8">
         <v>327680</v>
       </c>
       <c r="C15">
-        <v>2.6161E-2</v>
+        <v>4.8080999999999999E-2</v>
       </c>
       <c r="D15" s="1">
-        <f t="shared" si="5"/>
-        <v>0.88325061615854694</v>
+        <f t="shared" si="14"/>
+        <v>2.1446540880503142</v>
       </c>
       <c r="E15" t="str">
-        <f>A15&amp;" &amp; "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">numpy sort &amp; </v>
       </c>
       <c r="F15" t="str">
-        <f>B15&amp;" &amp; "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">327680 &amp; </v>
       </c>
       <c r="G15" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">0.026161 &amp; </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">0.048081 &amp; </v>
       </c>
       <c r="H15" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">0.883250616158547 \\ </v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">2.14465408805031 \\ </v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="B16" s="8">
         <v>655360</v>
       </c>
       <c r="C16">
-        <v>3.3745999999999998E-2</v>
+        <v>9.9307999999999994E-2</v>
       </c>
       <c r="D16" s="1">
-        <f t="shared" si="5"/>
-        <v>1.2899354000229348</v>
+        <f t="shared" si="14"/>
+        <v>2.0654312514298785</v>
       </c>
       <c r="E16" t="str">
-        <f>A16&amp;" &amp; "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">numpy sort &amp; </v>
       </c>
       <c r="F16" t="str">
-        <f>B16&amp;" &amp; "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">655360 &amp; </v>
       </c>
       <c r="G16" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">0.033746 &amp; </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">0.099308 &amp; </v>
       </c>
       <c r="H16" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">1.28993540002293 \\ </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">2.06543125142988 \\ </v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="8">
         <v>1310720</v>
       </c>
       <c r="C17">
-        <v>6.8165000000000003E-2</v>
+        <v>0.20624100000000001</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" si="5"/>
-        <v>2.0199431043679255</v>
+        <f t="shared" si="14"/>
+        <v>2.0767813267813269</v>
       </c>
       <c r="E17" t="str">
-        <f>A17&amp;" &amp; "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">numpy sort &amp; </v>
       </c>
       <c r="F17" t="str">
-        <f>B17&amp;" &amp; "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">1310720 &amp; </v>
       </c>
       <c r="G17" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">0.068165 &amp; </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">0.206241 &amp; </v>
       </c>
       <c r="H17" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">2.01994310436793 \\ </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">2.07678132678133 \\ </v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="B18" s="8">
         <v>2621440</v>
       </c>
       <c r="C18">
-        <v>0.154086</v>
+        <v>0.42428900000000003</v>
       </c>
       <c r="D18" s="1">
-        <f t="shared" si="5"/>
-        <v>2.2604855864446565</v>
+        <f t="shared" si="14"/>
+        <v>2.0572485587249867</v>
       </c>
       <c r="E18" t="str">
-        <f>A18&amp;" &amp; "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">numpy sort &amp; </v>
       </c>
       <c r="F18" t="str">
-        <f>B18&amp;" &amp; "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">2621440 &amp; </v>
       </c>
       <c r="G18" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">0.154086 &amp; </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">0.424289 &amp; </v>
       </c>
       <c r="H18" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">2.26048558644466 \\ </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">2.05724855872499 \\ </v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="B19" s="8">
         <v>5242880</v>
       </c>
       <c r="C19">
-        <v>0.60967700000000002</v>
+        <v>0.87103900000000001</v>
       </c>
       <c r="D19" s="1">
-        <f t="shared" si="5"/>
-        <v>3.9567319548823385</v>
+        <f t="shared" si="14"/>
+        <v>2.0529379738810101</v>
       </c>
       <c r="E19" t="str">
-        <f>A19&amp;" &amp; "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">numpy sort &amp; </v>
       </c>
       <c r="F19" t="str">
-        <f>B19&amp;" &amp; "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">5242880 &amp; </v>
       </c>
       <c r="G19" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">0.609677 &amp; </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">0.871039 &amp; </v>
       </c>
       <c r="H19" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">3.95673195488234 \\ </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">2.05293797388101 \\ </v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="B20" s="8">
         <v>10485760</v>
       </c>
       <c r="C20">
-        <v>0.63243400000000005</v>
+        <v>1.784178</v>
       </c>
       <c r="D20" s="1">
-        <f t="shared" si="5"/>
-        <v>1.037326321970486</v>
+        <f t="shared" si="14"/>
+        <v>2.0483330826748287</v>
       </c>
       <c r="E20" t="str">
-        <f>A20&amp;" &amp; "</f>
+        <f t="shared" si="10"/>
         <v xml:space="preserve">numpy sort &amp; </v>
       </c>
       <c r="F20" t="str">
-        <f>B20&amp;" &amp; "</f>
+        <f t="shared" si="11"/>
         <v xml:space="preserve">10485760 &amp; </v>
       </c>
       <c r="G20" t="str">
-        <f t="shared" si="3"/>
-        <v xml:space="preserve">0.632434 &amp; </v>
+        <f t="shared" si="12"/>
+        <v xml:space="preserve">1.784178 &amp; </v>
       </c>
       <c r="H20" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">1.03732632197049 \\ </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">2.04833308267483 \\ </v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <f>AVERAGE(D13:D20)</f>
-        <v>1.6606934619683507</v>
+        <v>2.0846744814913385</v>
       </c>
       <c r="H21" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v xml:space="preserve">1.66069346196835 \\ </v>
+        <f t="shared" si="13"/>
+        <v xml:space="preserve">2.08467448149134 \\ </v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C22" s="8"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>20</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1057,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE08E0C9-52A9-4E11-AB4B-82B3DFDADAE8}">
   <dimension ref="A1:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4:D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1068,25 +1337,25 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="E1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1106,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="F2">
-        <f>SQRT(A2)*A2</f>
+        <f t="shared" ref="F2:F9" si="0">SQRT(A2)*A2</f>
         <v>2.8284271247461903</v>
       </c>
     </row>
@@ -1115,11 +1384,11 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:B22" si="0">A3*1</f>
+        <f t="shared" ref="B3:B22" si="1">A3*1</f>
         <v>4</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C22" si="1">B3*B3</f>
+        <f t="shared" ref="C3:C22" si="2">B3*B3</f>
         <v>16</v>
       </c>
       <c r="D3">
@@ -1131,7 +1400,7 @@
         <v>4</v>
       </c>
       <c r="F3">
-        <f>SQRT(A3)*A3</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="G3">
@@ -1144,15 +1413,15 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="C4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D22" si="2">LOG(A4,2)*A4</f>
+        <f t="shared" ref="D4:D22" si="3">LOG(A4,2)*A4</f>
         <v>24</v>
       </c>
       <c r="E4">
@@ -1160,11 +1429,11 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <f>SQRT(A4)*A4</f>
+        <f t="shared" si="0"/>
         <v>22.627416997969522</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G22" si="3">F4/F3</f>
+        <f t="shared" ref="G4:G22" si="4">F4/F3</f>
         <v>2.8284271247461903</v>
       </c>
     </row>
@@ -1173,37 +1442,37 @@
         <v>16</v>
       </c>
       <c r="B5">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="3"/>
+        <v>64</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E21" si="5">D5/D4</f>
+        <v>2.6666666666666665</v>
+      </c>
+      <c r="F5">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-      <c r="C5">
-        <f t="shared" si="1"/>
-        <v>256</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="E5">
-        <f t="shared" ref="E4:E21" si="4">D5/D4</f>
-        <v>2.6666666666666665</v>
-      </c>
-      <c r="F5">
-        <f>SQRT(A5)*A5</f>
-        <v>64</v>
-      </c>
       <c r="G5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8284271247461898</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
-        <f>A5*2</f>
+        <f t="shared" ref="A6:A13" si="6">A5*2</f>
         <v>32</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
       <c r="C6">
@@ -1211,127 +1480,127 @@
         <v>1024</v>
       </c>
       <c r="D6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="E6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.5</v>
       </c>
       <c r="F6">
-        <f>SQRT(A6)*A6</f>
+        <f t="shared" si="0"/>
         <v>181.01933598375618</v>
       </c>
       <c r="G6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8284271247461903</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f>A6*2</f>
+        <f t="shared" si="6"/>
         <v>64</v>
       </c>
       <c r="B7">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="3"/>
+        <v>384</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="5"/>
+        <v>2.4</v>
+      </c>
+      <c r="F7">
         <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-      <c r="C7">
-        <f t="shared" si="1"/>
-        <v>4096</v>
-      </c>
-      <c r="D7">
-        <f t="shared" si="2"/>
-        <v>384</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="4"/>
-        <v>2.4</v>
-      </c>
-      <c r="F7">
-        <f>SQRT(A7)*A7</f>
         <v>512</v>
       </c>
       <c r="G7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8284271247461898</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f>A7*2</f>
+        <f t="shared" si="6"/>
         <v>128</v>
       </c>
       <c r="B8">
+        <f t="shared" si="1"/>
+        <v>128</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="2"/>
+        <v>16384</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="3"/>
+        <v>896</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="5"/>
+        <v>2.3333333333333335</v>
+      </c>
+      <c r="F8">
         <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-      <c r="C8">
-        <f t="shared" si="1"/>
-        <v>16384</v>
-      </c>
-      <c r="D8">
-        <f t="shared" si="2"/>
-        <v>896</v>
-      </c>
-      <c r="E8">
-        <f t="shared" si="4"/>
-        <v>2.3333333333333335</v>
-      </c>
-      <c r="F8">
-        <f>SQRT(A8)*A8</f>
         <v>1448.1546878700494</v>
       </c>
       <c r="G8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8284271247461903</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f>A8*2</f>
+        <f t="shared" si="6"/>
         <v>256</v>
       </c>
       <c r="B9">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>65536</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="3"/>
+        <v>2048</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="5"/>
+        <v>2.2857142857142856</v>
+      </c>
+      <c r="F9">
         <f t="shared" si="0"/>
-        <v>256</v>
-      </c>
-      <c r="C9">
-        <f t="shared" si="1"/>
-        <v>65536</v>
-      </c>
-      <c r="D9">
-        <f t="shared" si="2"/>
-        <v>2048</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="4"/>
-        <v>2.2857142857142856</v>
-      </c>
-      <c r="F9">
-        <f>SQRT(A9)*A9</f>
         <v>4096</v>
       </c>
       <c r="G9">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8284271247461898</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
-        <f>A9*2</f>
+        <f t="shared" si="6"/>
         <v>512</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>512</v>
       </c>
       <c r="C10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>262144</v>
       </c>
       <c r="D10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4608</v>
       </c>
       <c r="E10">
@@ -1339,119 +1608,119 @@
         <v>2.25</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F10:F22" si="5">SQRT(A10)*A10</f>
+        <f t="shared" ref="F10:F22" si="7">SQRT(A10)*A10</f>
         <v>11585.237502960395</v>
       </c>
       <c r="G10">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8284271247461903</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f>A10*2</f>
+        <f t="shared" si="6"/>
         <v>1024</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1024</v>
       </c>
       <c r="C11">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1048576</v>
       </c>
       <c r="D11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10240</v>
       </c>
       <c r="E11">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2222222222222223</v>
       </c>
       <c r="F11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>32768</v>
       </c>
       <c r="G11">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8284271247461898</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f>A11*2</f>
+        <f t="shared" si="6"/>
         <v>2048</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2048</v>
       </c>
       <c r="C12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4194304</v>
       </c>
       <c r="D12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22528</v>
       </c>
       <c r="E12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2000000000000002</v>
       </c>
       <c r="F12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>92681.900023683163</v>
       </c>
       <c r="G12">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8284271247461903</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f>A12*2</f>
+        <f t="shared" si="6"/>
         <v>4096</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4096</v>
       </c>
       <c r="C13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>16777216</v>
       </c>
       <c r="D13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>49152</v>
       </c>
       <c r="E13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1818181818181817</v>
       </c>
       <c r="F13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>262144</v>
       </c>
       <c r="G13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8284271247461898</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
-        <f t="shared" ref="A14:A22" si="6">A13*2</f>
+        <f t="shared" ref="A14:A22" si="8">A13*2</f>
         <v>8192</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8192</v>
       </c>
       <c r="C14">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67108864</v>
       </c>
       <c r="D14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>106496</v>
       </c>
       <c r="E14">
@@ -1459,179 +1728,179 @@
         <v>2.1666666666666665</v>
       </c>
       <c r="F14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>741455.20018946531</v>
       </c>
       <c r="G14">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8284271247461903</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>16384</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16384</v>
       </c>
       <c r="C15">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>268435456</v>
       </c>
       <c r="D15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>229376</v>
       </c>
       <c r="E15">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1538461538461537</v>
       </c>
       <c r="F15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>2097152</v>
       </c>
       <c r="G15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8284271247461898</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>32768</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>32768</v>
       </c>
       <c r="C16">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1073741824</v>
       </c>
       <c r="D16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>491520</v>
       </c>
       <c r="E16">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1428571428571428</v>
       </c>
       <c r="F16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>5931641.6015157225</v>
       </c>
       <c r="G16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8284271247461903</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>65536</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>65536</v>
       </c>
       <c r="C17">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4294967296</v>
       </c>
       <c r="D17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1048576</v>
       </c>
       <c r="E17">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1333333333333333</v>
       </c>
       <c r="F17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>16777216</v>
       </c>
       <c r="G17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8284271247461898</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>131072</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>131072</v>
       </c>
       <c r="C18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>17179869184</v>
       </c>
       <c r="D18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>2228224</v>
       </c>
       <c r="E18">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.125</v>
       </c>
       <c r="F18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>47453132.81212578</v>
       </c>
       <c r="G18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8284271247461903</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>262144</v>
       </c>
       <c r="B19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>262144</v>
       </c>
       <c r="C19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>68719476736</v>
       </c>
       <c r="D19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4718592</v>
       </c>
       <c r="E19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1176470588235294</v>
       </c>
       <c r="F19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>134217728</v>
       </c>
       <c r="G19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8284271247461898</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>524288</v>
       </c>
       <c r="B20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>524288</v>
       </c>
       <c r="C20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>274877906944</v>
       </c>
       <c r="D20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>9961472</v>
       </c>
       <c r="E20">
@@ -1639,59 +1908,59 @@
         <v>2.1111111111111112</v>
       </c>
       <c r="F20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>379625062.49700624</v>
       </c>
       <c r="G20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8284271247461903</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1048576</v>
       </c>
       <c r="B21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1048576</v>
       </c>
       <c r="C21">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1099511627776</v>
       </c>
       <c r="D21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>20971520</v>
       </c>
       <c r="E21">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.1052631578947367</v>
       </c>
       <c r="F21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>1073741824</v>
       </c>
       <c r="G21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8284271247461898</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2097152</v>
       </c>
       <c r="B22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2097152</v>
       </c>
       <c r="C22">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4398046511104</v>
       </c>
       <c r="D22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>44040192</v>
       </c>
       <c r="E22">
@@ -1699,11 +1968,11 @@
         <v>2.1</v>
       </c>
       <c r="F22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>3037000499.9760499</v>
       </c>
       <c r="G22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>2.8284271247461903</v>
       </c>
     </row>
